--- a/Embedded_Qs/fins.xlsx
+++ b/Embedded_Qs/fins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ENGR_321\Images_Data_Embedded_Qs\Convection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B025723D-2D07-4A88-BE7E-BECE4423075A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39240D6F-7DC0-44CC-80DB-E8A788A8181A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="255" windowWidth="18480" windowHeight="14700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="255" windowWidth="18480" windowHeight="14700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>Correct</t>
   </si>
@@ -55,57 +55,6 @@
     <t>Correct order of definitions</t>
   </si>
   <si>
-    <t>According to the plots, what happens to the temperature of the surface and overall flux as the convection becomes more effective?</t>
-  </si>
-  <si>
-    <t>The surface temperature increases, and the flux increases</t>
-  </si>
-  <si>
-    <t>The surface temperature increases, but the flux goes down</t>
-  </si>
-  <si>
-    <t>The surface temperature decreases, but the flux goes up</t>
-  </si>
-  <si>
-    <t>The surface temperature decreases, and the flux goes down</t>
-  </si>
-  <si>
-    <t>Yep!  As the convection becomes more violent, it throws colder fluid next to the surface, cooling the surface.  The cooler surface temperature increases the gradient in the solid, which leads to a larger flux of energy out of the solid.</t>
-  </si>
-  <si>
-    <t>Both gradients get steeper</t>
-  </si>
-  <si>
-    <t>The gradient in the solid gets steeper, but the one in the fluid becomes more shallow</t>
-  </si>
-  <si>
-    <t>Both gradients become more shallow</t>
-  </si>
-  <si>
-    <t>The gradient in the solid becomes more shallow, bu the one in the fluid gets steeper</t>
-  </si>
-  <si>
-    <t>Yep!  The overall flux is increasing in both the solid and fluid.  That means that the temperature gradients in both must become steeper.</t>
-  </si>
-  <si>
-    <t>Given what you know about what makes convection effective, do you think that a turbulent flow would tend to increase the effectiveness of convection?</t>
-  </si>
-  <si>
-    <t>Yes, it will increase the effectiveness</t>
-  </si>
-  <si>
-    <t>It would not change its effectiveness</t>
-  </si>
-  <si>
-    <t>No, it would decrease the effectiveness of the convection</t>
-  </si>
-  <si>
-    <t>Yep!  Convection works because it moves fluid far from the wall closer to the wall, and increases temperature gradients in doing so.  The violent disruptions and unpredictable whorls of turbulence are very effective at moving hot packets of fluid next to cold surfaces, and vice versa.</t>
-  </si>
-  <si>
-    <t>All of the given values are in base metric units, so no conversion is necessary.</t>
-  </si>
-  <si>
     <t>At the leading edge of the plate (x = 0)</t>
   </si>
   <si>
@@ -118,15 +67,9 @@
     <t>The convection coefficient h tends to decrease with length along the plate, so *h* would be relatively low here.</t>
   </si>
   <si>
-    <t>According to the plots, what happens to the x-direction temperature gradients *near the wall* as convection becomes more effective? (The behavior at the wall is hard to see, so you might need to reason it out)</t>
-  </si>
-  <si>
     <t>At the end of the plate (4.0 m)</t>
   </si>
   <si>
-    <t>Look at the equation for the critical Reynolds number. How fast would an air flow over a 3 m long plate need to be in order that the transition to turbulent flow would begin before the plate ended?  (density rho = 1.2 kg/m3, viscosity mu = 1.8 x 10^-5 kg/ms).  Answer in m/s.</t>
-  </si>
-  <si>
     <t>Look at the plot of h and delta as a function of x (the distance past the leading edge).  Given an air flow over a plate, approximately where will *h* reach its maximum if the free stream velocity (u_infinity) is 10 m/s and the plate is 4 m long? Use the material values from the previous question.</t>
   </si>
   <si>
@@ -160,18 +103,6 @@
     <t>A large second derivative implies a "cooler" fin tip.  A large  "P/A" ratio increases the size of the derivative in the fin equation.  Why is this true, in physical terms? (Mark all that are true)</t>
   </si>
   <si>
-    <t>A larger "perimeter/ cross-sectional area" ratio implies a large surface area for the fin, which aids convective heat loss</t>
-  </si>
-  <si>
-    <t>A larger "perimeter/ cross-sectional area" ratio implies that more internal particles in the fin are close to a surface, which allows easier conduction of thermal energy to the surface</t>
-  </si>
-  <si>
-    <t>A larger "perimeter/ cross-sectional area" ratio implies that the fin is longer, so there is more opportunity for convective heat loss</t>
-  </si>
-  <si>
-    <t>A larger "perimeter/ cross-sectional area" ratio implies that the fin is shorter; the shorter fin will be hotter, and so will loss a lot of energy through convection</t>
-  </si>
-  <si>
     <t>Nope.  Both "P" and "A" refer to the cross-section of the fin, and so have nothing to do with length.</t>
   </si>
   <si>
@@ -179,6 +110,57 @@
   </si>
   <si>
     <t>Yep!  A thin, flat fin will have more surface area than a square or round fin (for the same volume fin).</t>
+  </si>
+  <si>
+    <t>A larger "P/A" ratio implies that the fin is longer, so there is more opportunity for convective heat loss</t>
+  </si>
+  <si>
+    <t>A larger "P/A" ratio implies a large surface area for the fin, which aids convective heat loss</t>
+  </si>
+  <si>
+    <t>A larger "P/A" ratio implies that more internal particles in the fin are close to a surface, which allows easier conduction of thermal energy to the surface</t>
+  </si>
+  <si>
+    <t>A larger "P/A" ratio implies that the fin is shorter; the shorter fin will be hotter, and so will loss a lot of energy through convection</t>
+  </si>
+  <si>
+    <t>What happens to the temperature field if "hP/kA" approaches zero?</t>
+  </si>
+  <si>
+    <t>The fin will have a constant temperature (the same temperature as the base)</t>
+  </si>
+  <si>
+    <t>The fin will have a constant temperature (the same temperature as the fluid)</t>
+  </si>
+  <si>
+    <t>The fin will have a linear temperature field</t>
+  </si>
+  <si>
+    <t>The temperature field will dip very quickly near the base from the base temperature to the fluid temperature</t>
+  </si>
+  <si>
+    <t>Yep!  The simplified equation would set the second derivative to zero, which suggests that there is no curvature in the temperature field.  The slope of the field would be determined by the boundary conditions.  Note, though, that in this case, the assumptions of the fin equation are not very valid.</t>
+  </si>
+  <si>
+    <t>An adiabatic (no flux) BC at the tip suggests that flux through the tip is insignificant: that is, all of the thermal energy that enters the fin leaves through the sides.  Think about what the temperature field would look like in this case, and determine the "flux_base" that leads to this condition.  Answer as a multiple of 10^5 W/m2.</t>
+  </si>
+  <si>
+    <t>Your answer should have 3 decimal points, and be between 1 and 10.</t>
+  </si>
+  <si>
+    <t>The flux through the base will be less than through an unattached fin because the fin will be losing less thermal energy.</t>
+  </si>
+  <si>
+    <t>The flux through the base will be less than through an unattached fin because thermal energy will also be entering the fin from its tip.</t>
+  </si>
+  <si>
+    <t>The flux through the base will be more than through an unattached fin because the fin will be hotter.</t>
+  </si>
+  <si>
+    <t>Imagine that the second BC is a set temperature at the tip of the fin (so that the fin might be connected to two heated objects, one on each end of the fin).  Find the flux value that will give you a tip temperature of 75 degrees.  What is true about the flux?  Guess first, and then test your answer with the simulation</t>
+  </si>
+  <si>
+    <t>Yep!  The fin will be hotter because both ends of the fin will be held at a high temperature.  It will also lose *more* total thermal energy because of its higher temperature (and the fact that the convection conditions have not changed).  But there will be a flux of energy into the fin from both ends, and so the flux from the base will actually be lower.</t>
   </si>
 </sst>
 </file>
@@ -553,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -564,18 +546,18 @@
     </row>
     <row r="2" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -583,7 +565,7 @@
     </row>
     <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -591,7 +573,7 @@
     </row>
     <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -608,86 +590,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C5"/>
@@ -702,9 +604,9 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -713,51 +615,65 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C6"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -768,9 +684,9 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -779,39 +695,85 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>6.3479999999999999</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -827,7 +789,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,39 +800,33 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -883,11 +839,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B4:B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -896,32 +850,7 @@
     <col min="3" max="3" width="34.85546875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -945,7 +874,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -956,46 +885,46 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">

--- a/Embedded_Qs/fins.xlsx
+++ b/Embedded_Qs/fins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ENGR_321\Images_Data_Embedded_Qs\Convection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39240D6F-7DC0-44CC-80DB-E8A788A8181A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C653CE-B618-46B6-BD89-B05761137A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="255" windowWidth="18480" windowHeight="14700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="255" windowWidth="18480" windowHeight="14700" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>Correct</t>
   </si>
@@ -52,36 +52,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Correct order of definitions</t>
-  </si>
-  <si>
-    <t>At the leading edge of the plate (x = 0)</t>
-  </si>
-  <si>
-    <t>This would be correct if the flow never transitioned to turbulence (but it does).</t>
-  </si>
-  <si>
-    <t>This is a good answer, but not quite right: the Reynolds number describes the beginnnig of the *transition* to turbulence.  The plot shows that this is actually a low point for h, because the flow is still mostly laminar.</t>
-  </si>
-  <si>
-    <t>The convection coefficient h tends to decrease with length along the plate, so *h* would be relatively low here.</t>
-  </si>
-  <si>
-    <t>At the end of the plate (4.0 m)</t>
-  </si>
-  <si>
-    <t>Look at the plot of h and delta as a function of x (the distance past the leading edge).  Given an air flow over a plate, approximately where will *h* reach its maximum if the free stream velocity (u_infinity) is 10 m/s and the plate is 4 m long? Use the material values from the previous question.</t>
-  </si>
-  <si>
-    <t>About 0.75 m from the leading edge</t>
-  </si>
-  <si>
-    <t>About 1.0 m from the leading edge</t>
-  </si>
-  <si>
-    <t>Yep!  The max h is found when the flow achieves a fully turbulent flow, which is a small distance past the transition point indicated by the critical Reynolds number.</t>
-  </si>
-  <si>
     <t>A large  "h/k" ratio increases the size of the derivative in the fin equation.  Why is this, in physical terms?</t>
   </si>
   <si>
@@ -161,6 +131,30 @@
   </si>
   <si>
     <t>Yep!  The fin will be hotter because both ends of the fin will be held at a high temperature.  It will also lose *more* total thermal energy because of its higher temperature (and the fact that the convection conditions have not changed).  But there will be a flux of energy into the fin from both ends, and so the flux from the base will actually be lower.</t>
+  </si>
+  <si>
+    <t>Find the fin efficiency of the adiabatic BC fin in our simulation.</t>
+  </si>
+  <si>
+    <t>Find the fin effectiveness of the adiabatic BC fin in our simulation.</t>
+  </si>
+  <si>
+    <t>Remember to find the actual heat transfer through the base, not just the flux</t>
+  </si>
+  <si>
+    <t>Use the convection rate equation to find the HT through the base if the fin was not there.</t>
+  </si>
+  <si>
+    <t>Answer should be above 2.0, but likely not above 10.0 or so.</t>
+  </si>
+  <si>
+    <t>Answer should be between 0 and 1.0</t>
+  </si>
+  <si>
+    <t>Use the convection rate equation to find the HT through the fin if the fin was a maximum temperature</t>
+  </si>
+  <si>
+    <t>Be sure to find the area of the full fin to get the ideal heat transfer</t>
   </si>
 </sst>
 </file>
@@ -535,7 +529,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -546,18 +540,18 @@
     </row>
     <row r="2" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -565,7 +559,7 @@
     </row>
     <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -573,7 +567,7 @@
     </row>
     <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -606,7 +600,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -617,46 +611,46 @@
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -686,7 +680,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -697,7 +691,7 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -705,7 +699,7 @@
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -713,18 +707,18 @@
     </row>
     <row r="4" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -739,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +748,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -773,7 +767,7 @@
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -802,12 +796,12 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -815,18 +809,18 @@
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -839,9 +833,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -850,7 +846,42 @@
     <col min="3" max="3" width="34.85546875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>8.4640000000000004</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -859,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,63 +903,46 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
